--- a/www.eia.gov/forecasts/steo/xls/Fig15.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig15.xlsx
@@ -32,7 +32,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Consumption (million barrels per day)</t>
@@ -56,7 +56,7 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Total Consumption (million bbl/day)</t>
@@ -330,13 +330,13 @@
                   <c:v>0.25753261370000047</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10040631050000037</c:v>
+                  <c:v>0.11539414109999946</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3950360700000246E-2</c:v>
+                  <c:v>-6.2651684999988078E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.8429671200000115E-2</c:v>
+                  <c:v>7.3347967100000133E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -517,13 +517,13 @@
                   <c:v>7.8292602799999944E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5416407000000056E-2</c:v>
+                  <c:v>5.5780046299999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9091190000000164E-3</c:v>
+                  <c:v>1.3708433099999917E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4519369999999068E-3</c:v>
+                  <c:v>-3.5383533999999717E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -704,13 +704,13 @@
                   <c:v>-4.2010304100000173E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.13950064800000028</c:v>
+                  <c:v>-0.14091544040000015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11291881510000001</c:v>
+                  <c:v>7.9367730800000036E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3704953400000051E-2</c:v>
+                  <c:v>0.10241572050000025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -891,13 +891,13 @@
                   <c:v>0.13125833460000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0227445500001124E-2</c:v>
+                  <c:v>2.3068704999998246E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9879346199998054E-2</c:v>
+                  <c:v>0.17211956559999919</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20827393140000083</c:v>
+                  <c:v>0.15770797279999904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -912,8 +912,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="446191184"/>
-        <c:axId val="690122256"/>
+        <c:axId val="573093248"/>
+        <c:axId val="573093808"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1145,13 +1145,13 @@
                   <c:v>19.202012</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.799278999999999</c:v>
+                  <c:v>19.79928</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.712031</c:v>
+                  <c:v>19.712032000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.130901999999999</c:v>
+                  <c:v>20.130901000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>19.863565000000001</c:v>
@@ -1160,13 +1160,13 @@
                   <c:v>19.621791000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>19.603890733</c:v>
+                  <c:v>19.654798</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19.509094622999999</c:v>
+                  <c:v>19.421787434999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>19.022804287</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>#N/A</c:v>
@@ -1488,79 +1488,79 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19.509094622999999</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.526499999999999</c:v>
+                  <c:v>19.022804287</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.581309999999998</c:v>
+                  <c:v>19.753070000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19.583120000000001</c:v>
+                  <c:v>19.67202</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19.521039999999999</c:v>
+                  <c:v>19.484200000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19.52938</c:v>
+                  <c:v>19.579329999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19.95852</c:v>
+                  <c:v>20.023150000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>20.140219999999999</c:v>
+                  <c:v>20.245190000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>20.230740000000001</c:v>
+                  <c:v>20.314109999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20.092169999999999</c:v>
+                  <c:v>20.091989999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>19.907119999999999</c:v>
+                  <c:v>19.913060000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>19.95177</c:v>
+                  <c:v>19.927399999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20.1312</c:v>
+                  <c:v>20.08522</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>19.884399999999999</c:v>
+                  <c:v>19.762989999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>19.911110000000001</c:v>
+                  <c:v>19.88646</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>19.918320000000001</c:v>
+                  <c:v>19.872070000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>19.875209999999999</c:v>
+                  <c:v>19.851769999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>19.893969999999999</c:v>
+                  <c:v>19.859590000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>20.376390000000001</c:v>
+                  <c:v>20.33989</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>20.53689</c:v>
+                  <c:v>20.529769999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>20.66696</c:v>
+                  <c:v>20.660900000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20.430900000000001</c:v>
+                  <c:v>20.37133</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>20.296779999999998</c:v>
+                  <c:v>20.22626</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>20.290240000000001</c:v>
+                  <c:v>20.206489999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>20.576039999999999</c:v>
+                  <c:v>20.481719999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1577,11 +1577,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446190064"/>
-        <c:axId val="446190624"/>
+        <c:axId val="573092128"/>
+        <c:axId val="573092688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="446190064"/>
+        <c:axId val="573092128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,7 +1598,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446190624"/>
+        <c:crossAx val="573092688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1609,7 +1609,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="446190624"/>
+        <c:axId val="573092688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -1637,12 +1637,12 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446190064"/>
+        <c:crossAx val="573092128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="446191184"/>
+        <c:axId val="573093248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,7 +1659,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="690122256"/>
+        <c:crossAx val="573093808"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1667,7 +1667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="690122256"/>
+        <c:axId val="573093808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.9"/>
@@ -1684,7 +1684,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446191184"/>
+        <c:crossAx val="573093248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.15000000000000024"/>
@@ -1853,7 +1853,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -1977,13 +1977,13 @@
             <v>0.25753261370000047</v>
           </cell>
           <cell r="K28">
-            <v>0.10040631050000037</v>
+            <v>0.11539414109999946</v>
           </cell>
           <cell r="L28">
-            <v>4.3950360700000246E-2</v>
+            <v>-6.2651684999988078E-3</v>
           </cell>
           <cell r="M28">
-            <v>8.8429671200000115E-2</v>
+            <v>7.3347967100000133E-2</v>
           </cell>
         </row>
         <row r="29">
@@ -1991,13 +1991,13 @@
             <v>7.8292602799999944E-2</v>
           </cell>
           <cell r="K29">
-            <v>5.5416407000000056E-2</v>
+            <v>5.5780046299999997E-2</v>
           </cell>
           <cell r="L29">
-            <v>3.9091190000000164E-3</v>
+            <v>1.3708433099999917E-2</v>
           </cell>
           <cell r="M29">
-            <v>5.4519369999999068E-3</v>
+            <v>-3.5383533999999717E-3</v>
           </cell>
         </row>
         <row r="30">
@@ -2005,13 +2005,13 @@
             <v>-4.2010304100000173E-2</v>
           </cell>
           <cell r="K30">
-            <v>-0.13950064800000028</v>
+            <v>-0.14091544040000015</v>
           </cell>
           <cell r="L30">
-            <v>0.11291881510000001</v>
+            <v>7.9367730800000036E-2</v>
           </cell>
           <cell r="M30">
-            <v>7.3704953400000051E-2</v>
+            <v>0.10241572050000025</v>
           </cell>
         </row>
         <row r="31">
@@ -2019,13 +2019,13 @@
             <v>0.13125833460000003</v>
           </cell>
           <cell r="K31">
-            <v>4.0227445500001124E-2</v>
+            <v>2.3068704999998246E-2</v>
           </cell>
           <cell r="L31">
-            <v>9.9879346199998054E-2</v>
+            <v>0.17211956559999919</v>
           </cell>
           <cell r="M31">
-            <v>0.20827393140000083</v>
+            <v>0.15770797279999904</v>
           </cell>
         </row>
         <row r="37">
@@ -2220,7 +2220,7 @@
             <v>42522</v>
           </cell>
           <cell r="C54">
-            <v>19.799278999999999</v>
+            <v>19.79928</v>
           </cell>
           <cell r="D54" t="e">
             <v>#N/A</v>
@@ -2231,7 +2231,7 @@
             <v>42552</v>
           </cell>
           <cell r="C55">
-            <v>19.712031</v>
+            <v>19.712032000000001</v>
           </cell>
           <cell r="D55" t="e">
             <v>#N/A</v>
@@ -2242,7 +2242,7 @@
             <v>42583</v>
           </cell>
           <cell r="C56">
-            <v>20.130901999999999</v>
+            <v>20.130901000000001</v>
           </cell>
           <cell r="D56" t="e">
             <v>#N/A</v>
@@ -2275,7 +2275,7 @@
             <v>42675</v>
           </cell>
           <cell r="C59">
-            <v>19.603890733</v>
+            <v>19.654798</v>
           </cell>
           <cell r="D59" t="e">
             <v>#N/A</v>
@@ -2286,21 +2286,21 @@
             <v>42705</v>
           </cell>
           <cell r="C60">
-            <v>19.509094622999999</v>
-          </cell>
-          <cell r="D60">
-            <v>19.509094622999999</v>
+            <v>19.421787434999999</v>
+          </cell>
+          <cell r="D60" t="e">
+            <v>#N/A</v>
           </cell>
         </row>
         <row r="61">
           <cell r="B61">
             <v>42736</v>
           </cell>
-          <cell r="C61" t="e">
-            <v>#N/A</v>
+          <cell r="C61">
+            <v>19.022804287</v>
           </cell>
           <cell r="D61">
-            <v>19.526499999999999</v>
+            <v>19.022804287</v>
           </cell>
         </row>
         <row r="62">
@@ -2311,7 +2311,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D62">
-            <v>19.581309999999998</v>
+            <v>19.753070000000001</v>
           </cell>
         </row>
         <row r="63">
@@ -2322,7 +2322,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D63">
-            <v>19.583120000000001</v>
+            <v>19.67202</v>
           </cell>
         </row>
         <row r="64">
@@ -2333,7 +2333,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D64">
-            <v>19.521039999999999</v>
+            <v>19.484200000000001</v>
           </cell>
         </row>
         <row r="65">
@@ -2344,7 +2344,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D65">
-            <v>19.52938</v>
+            <v>19.579329999999999</v>
           </cell>
         </row>
         <row r="66">
@@ -2355,7 +2355,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D66">
-            <v>19.95852</v>
+            <v>20.023150000000001</v>
           </cell>
         </row>
         <row r="67">
@@ -2366,7 +2366,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D67">
-            <v>20.140219999999999</v>
+            <v>20.245190000000001</v>
           </cell>
         </row>
         <row r="68">
@@ -2377,7 +2377,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D68">
-            <v>20.230740000000001</v>
+            <v>20.314109999999999</v>
           </cell>
         </row>
         <row r="69">
@@ -2388,7 +2388,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D69">
-            <v>20.092169999999999</v>
+            <v>20.091989999999999</v>
           </cell>
         </row>
         <row r="70">
@@ -2399,7 +2399,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D70">
-            <v>19.907119999999999</v>
+            <v>19.913060000000002</v>
           </cell>
         </row>
         <row r="71">
@@ -2410,7 +2410,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D71">
-            <v>19.95177</v>
+            <v>19.927399999999999</v>
           </cell>
         </row>
         <row r="72">
@@ -2421,7 +2421,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D72">
-            <v>20.1312</v>
+            <v>20.08522</v>
           </cell>
         </row>
         <row r="73">
@@ -2432,7 +2432,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D73">
-            <v>19.884399999999999</v>
+            <v>19.762989999999999</v>
           </cell>
         </row>
         <row r="74">
@@ -2443,7 +2443,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D74">
-            <v>19.911110000000001</v>
+            <v>19.88646</v>
           </cell>
         </row>
         <row r="75">
@@ -2454,7 +2454,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D75">
-            <v>19.918320000000001</v>
+            <v>19.872070000000001</v>
           </cell>
         </row>
         <row r="76">
@@ -2465,7 +2465,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D76">
-            <v>19.875209999999999</v>
+            <v>19.851769999999998</v>
           </cell>
         </row>
         <row r="77">
@@ -2476,7 +2476,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D77">
-            <v>19.893969999999999</v>
+            <v>19.859590000000001</v>
           </cell>
         </row>
         <row r="78">
@@ -2487,7 +2487,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D78">
-            <v>20.376390000000001</v>
+            <v>20.33989</v>
           </cell>
         </row>
         <row r="79">
@@ -2498,7 +2498,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D79">
-            <v>20.53689</v>
+            <v>20.529769999999999</v>
           </cell>
         </row>
         <row r="80">
@@ -2509,7 +2509,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D80">
-            <v>20.66696</v>
+            <v>20.660900000000002</v>
           </cell>
         </row>
         <row r="81">
@@ -2520,7 +2520,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D81">
-            <v>20.430900000000001</v>
+            <v>20.37133</v>
           </cell>
         </row>
         <row r="82">
@@ -2531,7 +2531,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D82">
-            <v>20.296779999999998</v>
+            <v>20.22626</v>
           </cell>
         </row>
         <row r="83">
@@ -2542,7 +2542,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D83">
-            <v>20.290240000000001</v>
+            <v>20.206489999999999</v>
           </cell>
         </row>
         <row r="84">
@@ -2553,7 +2553,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D84">
-            <v>20.576039999999999</v>
+            <v>20.481719999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -2924,13 +2924,13 @@
         <v>19.530678762000001</v>
       </c>
       <c r="F27" s="11">
-        <v>19.587228277000001</v>
+        <v>19.584006213999999</v>
       </c>
       <c r="G27" s="11">
-        <v>19.847885917999999</v>
+        <v>19.842936774999998</v>
       </c>
       <c r="H27" s="11">
-        <v>20.223746411</v>
+        <v>20.172870081999999</v>
       </c>
       <c r="I27" s="12"/>
       <c r="J27" s="13">
@@ -2939,15 +2939,15 @@
       </c>
       <c r="K27" s="13">
         <f t="shared" si="0"/>
-        <v>5.6549515000000383E-2</v>
+        <v>5.3327451999997777E-2</v>
       </c>
       <c r="L27" s="13">
         <f t="shared" si="0"/>
-        <v>0.26065764099999811</v>
+        <v>0.25893056099999967</v>
       </c>
       <c r="M27" s="13">
         <f t="shared" si="0"/>
-        <v>0.37586049300000113</v>
+        <v>0.32993330700000101</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2961,13 +2961,13 @@
         <v>9.1783723288000001</v>
       </c>
       <c r="F28" s="11">
-        <v>9.2787786393000005</v>
+        <v>9.2937664698999995</v>
       </c>
       <c r="G28" s="11">
-        <v>9.3227290000000007</v>
+        <v>9.2875013014000007</v>
       </c>
       <c r="H28" s="11">
-        <v>9.4111586712000008</v>
+        <v>9.3608492685000009</v>
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="13">
@@ -2976,15 +2976,15 @@
       </c>
       <c r="K28" s="13">
         <f t="shared" si="0"/>
-        <v>0.10040631050000037</v>
+        <v>0.11539414109999946</v>
       </c>
       <c r="L28" s="13">
         <f t="shared" si="0"/>
-        <v>4.3950360700000246E-2</v>
+        <v>-6.2651684999988078E-3</v>
       </c>
       <c r="M28" s="13">
         <f t="shared" si="0"/>
-        <v>8.8429671200000115E-2</v>
+        <v>7.3347967100000133E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2998,13 +2998,13 @@
         <v>1.5482200384</v>
       </c>
       <c r="F29" s="11">
-        <v>1.6036364454000001</v>
+        <v>1.6040000847</v>
       </c>
       <c r="G29" s="11">
-        <v>1.6075455644000001</v>
+        <v>1.6177085177999999</v>
       </c>
       <c r="H29" s="11">
-        <v>1.6129975014</v>
+        <v>1.6141701643999999</v>
       </c>
       <c r="I29" s="12"/>
       <c r="J29" s="13">
@@ -3013,15 +3013,15 @@
       </c>
       <c r="K29" s="13">
         <f t="shared" si="0"/>
-        <v>5.5416407000000056E-2</v>
+        <v>5.5780046299999997E-2</v>
       </c>
       <c r="L29" s="13">
         <f t="shared" si="0"/>
-        <v>3.9091190000000164E-3</v>
+        <v>1.3708433099999917E-2</v>
       </c>
       <c r="M29" s="13">
         <f t="shared" si="0"/>
-        <v>5.4519369999999068E-3</v>
+        <v>-3.5383533999999717E-3</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -3035,13 +3035,13 @@
         <v>3.9952371644000002</v>
       </c>
       <c r="F30" s="11">
-        <v>3.8557365163999999</v>
+        <v>3.8543217240000001</v>
       </c>
       <c r="G30" s="11">
-        <v>3.9686553314999999</v>
+        <v>3.9336894548000001</v>
       </c>
       <c r="H30" s="11">
-        <v>4.0423602849</v>
+        <v>4.0361051753000003</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="13">
@@ -3050,15 +3050,15 @@
       </c>
       <c r="K30" s="13">
         <f t="shared" si="0"/>
-        <v>-0.13950064800000028</v>
+        <v>-0.14091544040000015</v>
       </c>
       <c r="L30" s="13">
         <f t="shared" si="0"/>
-        <v>0.11291881510000001</v>
+        <v>7.9367730800000036E-2</v>
       </c>
       <c r="M30" s="13">
         <f t="shared" si="0"/>
-        <v>7.3704953400000051E-2</v>
+        <v>0.10241572050000025</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -3076,15 +3076,15 @@
       </c>
       <c r="F31" s="15">
         <f>F27-SUM(F28:F30)</f>
-        <v>4.849076675900001</v>
+        <v>4.8319179353999981</v>
       </c>
       <c r="G31" s="15">
         <f>G27-SUM(G28:G30)</f>
-        <v>4.9489560220999991</v>
+        <v>5.0040375009999973</v>
       </c>
       <c r="H31" s="15">
         <f>H27-SUM(H28:H30)</f>
-        <v>5.1572299534999999</v>
+        <v>5.1617454737999964</v>
       </c>
       <c r="I31" s="16"/>
       <c r="J31" s="17">
@@ -3093,15 +3093,15 @@
       </c>
       <c r="K31" s="17">
         <f t="shared" si="0"/>
-        <v>4.0227445500001124E-2</v>
+        <v>2.3068704999998246E-2</v>
       </c>
       <c r="L31" s="17">
         <f t="shared" si="0"/>
-        <v>9.9879346199998054E-2</v>
+        <v>0.17211956559999919</v>
       </c>
       <c r="M31" s="17">
         <f t="shared" si="0"/>
-        <v>0.20827393140000083</v>
+        <v>0.15770797279999904</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -3327,7 +3327,7 @@
         <v>42522</v>
       </c>
       <c r="C54" s="11">
-        <v>19.799278999999999</v>
+        <v>19.79928</v>
       </c>
       <c r="D54" s="11" t="e">
         <v>#N/A</v>
@@ -3338,7 +3338,7 @@
         <v>42552</v>
       </c>
       <c r="C55" s="11">
-        <v>19.712031</v>
+        <v>19.712032000000001</v>
       </c>
       <c r="D55" s="11" t="e">
         <v>#N/A</v>
@@ -3349,7 +3349,7 @@
         <v>42583</v>
       </c>
       <c r="C56" s="11">
-        <v>20.130901999999999</v>
+        <v>20.130901000000001</v>
       </c>
       <c r="D56" s="11" t="e">
         <v>#N/A</v>
@@ -3382,7 +3382,7 @@
         <v>42675</v>
       </c>
       <c r="C59" s="11">
-        <v>19.603890733</v>
+        <v>19.654798</v>
       </c>
       <c r="D59" s="11" t="e">
         <v>#N/A</v>
@@ -3393,21 +3393,21 @@
         <v>42705</v>
       </c>
       <c r="C60" s="11">
-        <v>19.509094622999999</v>
-      </c>
-      <c r="D60" s="11">
-        <v>19.509094622999999</v>
+        <v>19.421787434999999</v>
+      </c>
+      <c r="D60" s="11" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="23">
         <v>42736</v>
       </c>
-      <c r="C61" s="11" t="e">
-        <v>#N/A</v>
+      <c r="C61" s="11">
+        <v>19.022804287</v>
       </c>
       <c r="D61" s="11">
-        <v>19.526499999999999</v>
+        <v>19.022804287</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -3418,7 +3418,7 @@
         <v>#N/A</v>
       </c>
       <c r="D62" s="11">
-        <v>19.581309999999998</v>
+        <v>19.753070000000001</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -3429,7 +3429,7 @@
         <v>#N/A</v>
       </c>
       <c r="D63" s="11">
-        <v>19.583120000000001</v>
+        <v>19.67202</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -3440,7 +3440,7 @@
         <v>#N/A</v>
       </c>
       <c r="D64" s="11">
-        <v>19.521039999999999</v>
+        <v>19.484200000000001</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -3451,7 +3451,7 @@
         <v>#N/A</v>
       </c>
       <c r="D65" s="11">
-        <v>19.52938</v>
+        <v>19.579329999999999</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -3462,7 +3462,7 @@
         <v>#N/A</v>
       </c>
       <c r="D66" s="11">
-        <v>19.95852</v>
+        <v>20.023150000000001</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -3473,7 +3473,7 @@
         <v>#N/A</v>
       </c>
       <c r="D67" s="11">
-        <v>20.140219999999999</v>
+        <v>20.245190000000001</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -3484,7 +3484,7 @@
         <v>#N/A</v>
       </c>
       <c r="D68" s="11">
-        <v>20.230740000000001</v>
+        <v>20.314109999999999</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
         <v>#N/A</v>
       </c>
       <c r="D69" s="11">
-        <v>20.092169999999999</v>
+        <v>20.091989999999999</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -3506,7 +3506,7 @@
         <v>#N/A</v>
       </c>
       <c r="D70" s="11">
-        <v>19.907119999999999</v>
+        <v>19.913060000000002</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
@@ -3517,7 +3517,7 @@
         <v>#N/A</v>
       </c>
       <c r="D71" s="11">
-        <v>19.95177</v>
+        <v>19.927399999999999</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -3528,7 +3528,7 @@
         <v>#N/A</v>
       </c>
       <c r="D72" s="11">
-        <v>20.1312</v>
+        <v>20.08522</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -3539,7 +3539,7 @@
         <v>#N/A</v>
       </c>
       <c r="D73" s="11">
-        <v>19.884399999999999</v>
+        <v>19.762989999999999</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -3550,7 +3550,7 @@
         <v>#N/A</v>
       </c>
       <c r="D74" s="11">
-        <v>19.911110000000001</v>
+        <v>19.88646</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
@@ -3561,7 +3561,7 @@
         <v>#N/A</v>
       </c>
       <c r="D75" s="11">
-        <v>19.918320000000001</v>
+        <v>19.872070000000001</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
@@ -3572,7 +3572,7 @@
         <v>#N/A</v>
       </c>
       <c r="D76" s="11">
-        <v>19.875209999999999</v>
+        <v>19.851769999999998</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
@@ -3583,7 +3583,7 @@
         <v>#N/A</v>
       </c>
       <c r="D77" s="11">
-        <v>19.893969999999999</v>
+        <v>19.859590000000001</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
@@ -3594,7 +3594,7 @@
         <v>#N/A</v>
       </c>
       <c r="D78" s="11">
-        <v>20.376390000000001</v>
+        <v>20.33989</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
@@ -3605,7 +3605,7 @@
         <v>#N/A</v>
       </c>
       <c r="D79" s="11">
-        <v>20.53689</v>
+        <v>20.529769999999999</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
@@ -3616,7 +3616,7 @@
         <v>#N/A</v>
       </c>
       <c r="D80" s="11">
-        <v>20.66696</v>
+        <v>20.660900000000002</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
@@ -3627,7 +3627,7 @@
         <v>#N/A</v>
       </c>
       <c r="D81" s="11">
-        <v>20.430900000000001</v>
+        <v>20.37133</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
@@ -3638,7 +3638,7 @@
         <v>#N/A</v>
       </c>
       <c r="D82" s="11">
-        <v>20.296779999999998</v>
+        <v>20.22626</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
@@ -3649,7 +3649,7 @@
         <v>#N/A</v>
       </c>
       <c r="D83" s="11">
-        <v>20.290240000000001</v>
+        <v>20.206489999999999</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
@@ -3660,7 +3660,7 @@
         <v>#N/A</v>
       </c>
       <c r="D84" s="11">
-        <v>20.576039999999999</v>
+        <v>20.481719999999999</v>
       </c>
     </row>
   </sheetData>
